--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -80,7 +80,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:13 AM</t>
+    <t>Tuesday, 3 June, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -44,22 +44,85 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
     <t>37.6200</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
@@ -68,19 +131,25 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 3 June, 2025 9:56 AM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 3 June, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,53 +829,251 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-      <c t="s" r="Q8" s="12">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>57.619999999999997</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
         <v>24</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>34</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>34</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>155.94499999999999</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>47</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>48</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +1092,40 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
     <t>27.2250</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -95,6 +107,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -107,24 +131,30 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -149,7 +179,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:00 AM</t>
+    <t>Tuesday, 3 June, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -889,7 +919,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -899,11 +929,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -915,14 +945,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -961,18 +991,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -981,31 +1011,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1014,66 +1044,165 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c t="s" r="Q14" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>155.94499999999999</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>42</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>46</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>47</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>48</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>42</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>42</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>240.625</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>58</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1122,10 +1251,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:05 AM</t>
+    <t>Tuesday, 3 June, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -179,7 +191,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:06 AM</t>
+    <t>Tuesday, 3 June, 2025 10:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1035,7 +1047,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1057,18 +1069,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1077,28 +1089,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>33</v>
@@ -1110,20 +1122,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1156,7 +1168,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1171,38 +1183,71 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>240.625</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>56</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>46</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>58</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>263.625</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1266,10 +1311,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8703:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -152,10 +164,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -167,6 +179,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -191,7 +212,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:12 AM</t>
+    <t>Tuesday, 3 June, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1102,15 +1123,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>33</v>
@@ -1122,31 +1143,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,20 +1176,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1195,59 +1216,125 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>263.625</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>60</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>50</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>61</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>50</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>294.625</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>67</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>68</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>69</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1403,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:18 AM</t>
+    <t>Tuesday, 3 June, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>23.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
   </si>
   <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
@@ -1101,7 +1113,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1134,7 +1146,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1156,18 +1168,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,31 +1188,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,28 +1221,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>33</v>
@@ -1242,20 +1254,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1288,7 +1300,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1303,38 +1315,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>294.625</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>67</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>68</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>54</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>69</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>469.625</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>71</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>72</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>73</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1413,10 +1458,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:20 AM</t>
+    <t>Tuesday, 3 June, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -119,6 +131,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -167,15 +188,27 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -194,12 +227,6 @@
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -224,7 +251,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:28 AM</t>
+    <t>Tuesday, 3 June, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1024,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1007,11 +1034,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1023,14 +1050,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1080,7 +1107,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1096,7 +1123,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1106,14 +1133,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1122,14 +1149,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1166,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1172,14 +1199,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1188,31 +1215,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,31 +1248,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,31 +1281,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,31 +1314,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,20 +1347,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1344,42 +1371,141 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>469.625</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>71</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>65</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>61</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>62</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>73</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>77</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>61</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>78</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>680.5</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>81</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>82</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1463,10 +1589,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -122,9 +137,6 @@
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -224,6 +236,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -251,7 +266,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:33 AM</t>
+    <t>Tuesday, 3 June, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -942,7 +957,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -951,14 +966,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -968,11 +983,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -984,14 +999,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1001,11 +1016,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1017,14 +1032,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1034,11 +1049,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1050,14 +1065,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1067,11 +1082,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1083,14 +1098,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1100,11 +1115,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1116,14 +1131,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,14 +1148,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1149,14 +1164,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1173,7 +1188,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1206,7 +1221,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,7 +1254,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1272,7 +1287,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1294,18 +1309,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,31 +1329,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1354,24 +1369,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,31 +1395,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1413,31 +1428,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1453,59 +1468,125 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>78</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>65</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>79</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>680.5</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>81</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>82</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>65</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>83</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>714.5</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>85</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>86</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>87</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1604,10 +1685,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -134,6 +143,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -143,6 +161,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -218,15 +248,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -248,12 +272,6 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -266,7 +284,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:11 AM</t>
+    <t>Tuesday, 3 June, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1057,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1049,14 +1067,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1065,14 +1083,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1082,11 +1100,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1098,14 +1116,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1138,7 +1156,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1171,7 +1189,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1181,7 +1199,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1204,7 +1222,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1214,14 +1232,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1230,14 +1248,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1247,11 +1265,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1263,14 +1281,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1280,14 +1298,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1296,14 +1314,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1313,11 +1331,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1329,28 +1347,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1362,31 +1380,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1395,28 +1413,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1428,28 +1446,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1461,31 +1479,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1494,28 +1512,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1527,66 +1545,165 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>714.5</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>45</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>75</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>76</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>86</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>75</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>52</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>87</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>88</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>75</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>835.5</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1695,10 +1812,25 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:19 AM</t>
+    <t>Tuesday, 3 June, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>61.8750</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>254.7600</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -284,7 +293,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:21 AM</t>
+    <t>Tuesday, 3 June, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,7 +1132,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1133,14 +1142,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1149,14 +1158,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1189,7 +1198,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1199,14 +1208,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1222,7 +1231,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1232,14 +1241,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1255,7 +1264,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1265,14 +1274,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,14 +1290,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1321,7 +1330,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,11 +1340,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,11 +1373,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1406,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1446,28 +1455,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1479,31 +1488,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1512,31 +1521,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1552,21 +1561,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1578,28 +1587,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1611,28 +1620,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1644,66 +1653,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>835.5</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>91</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>78</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>92</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1090.26</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>94</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>95</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>96</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1827,10 +1869,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
     <t>7.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -131,6 +140,15 @@
     <t>254.7600</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -227,6 +245,15 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -293,7 +320,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:43 AM</t>
+    <t>Tuesday, 3 June, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -984,7 +1011,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -993,14 +1020,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1010,14 +1037,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1026,14 +1053,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1043,11 +1070,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1059,14 +1086,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1083,7 +1110,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1099,7 +1126,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1109,14 +1136,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1125,14 +1152,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1149,7 +1176,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1165,7 +1192,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1175,14 +1202,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1191,14 +1218,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1208,11 +1235,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1224,14 +1251,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1241,14 +1268,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1264,7 +1291,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,14 +1334,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1323,14 +1350,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1340,14 +1367,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1356,14 +1383,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1373,14 +1400,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1389,14 +1416,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1406,14 +1433,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1422,14 +1449,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1439,14 +1466,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,14 +1482,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1472,14 +1499,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1488,31 +1515,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,31 +1548,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1554,31 +1581,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,31 +1614,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1620,31 +1647,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1653,31 +1680,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1686,66 +1713,165 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1090.26</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>94</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>95</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>96</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>54</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>87</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>88</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>98</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>87</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>61</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>100</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>87</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>101</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1229.1500000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>103</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>104</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>105</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1874,10 +2000,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -308,6 +308,9 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -320,7 +323,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:46 AM</t>
+    <t>Tuesday, 3 June, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1819,7 +1822,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1829,49 +1832,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1229.1500000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>100</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>101</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>87</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>102</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1249.1500000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
         <v>104</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
         <v>105</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>106</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2015,10 +2051,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -284,7 +296,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -323,7 +338,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:51 AM</t>
+    <t>Tuesday, 3 June, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1309,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1304,11 +1319,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1320,14 +1335,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1337,14 +1352,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,14 +1385,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1386,14 +1401,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1410,7 +1425,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1426,7 +1441,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,11 +1451,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1542,7 +1557,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1558,7 +1573,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,11 +1583,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1584,14 +1599,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1608,7 +1623,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1630,15 +1645,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1650,31 +1665,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,31 +1698,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,28 +1731,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1749,28 +1764,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1782,28 +1797,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1815,28 +1830,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1848,66 +1863,99 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1249.1500000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>104</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>105</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>106</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>91</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1263.1500000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>109</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>110</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>111</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2056,10 +2104,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:52 AM</t>
+    <t>Tuesday, 3 June, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -182,12 +182,21 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NO DEPRINE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -195,9 +204,6 @@
   </si>
   <si>
     <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
   </si>
   <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
@@ -1385,11 +1391,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1401,14 +1407,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1418,14 +1424,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1441,7 +1447,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,14 +1457,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1484,11 +1490,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1500,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1517,11 +1523,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1533,14 +1539,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1550,11 +1556,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1566,14 +1572,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1583,14 +1589,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,11 +1622,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1632,14 +1638,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1649,14 +1655,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1665,28 +1671,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1698,31 +1704,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,7 +1737,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1744,18 +1750,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,7 +1770,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1777,15 +1783,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1797,7 +1803,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1810,15 +1816,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1830,28 +1836,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1870,21 +1876,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1896,66 +1902,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1263.1500000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>108</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>93</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>109</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1338.1500000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
         <v>111</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2109,10 +2148,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 11:54 AM</t>
+    <t>Tuesday, 3 June, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>187.50</t>
   </si>
   <si>
@@ -149,6 +158,15 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -302,10 +320,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -329,6 +347,15 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -344,7 +371,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 12:08 PM</t>
+    <t>Tuesday, 3 June, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1068,7 +1095,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1101,7 +1128,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1150,7 +1177,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1160,14 +1187,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1176,14 +1203,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1200,7 +1227,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1216,7 +1243,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1233,7 +1260,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1249,7 +1276,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1266,7 +1293,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1282,7 +1309,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1292,11 +1319,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1308,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1325,11 +1352,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1341,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1358,11 +1385,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1374,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1391,14 +1418,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1407,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1424,14 +1451,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1447,7 +1474,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,14 +1484,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1473,14 +1500,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1490,7 +1517,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1513,7 +1540,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1527,10 +1554,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1539,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,11 +1583,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1572,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,11 +1616,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1605,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1638,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,14 +1715,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,31 +1731,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,31 +1764,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,20 +1797,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1810,24 +1837,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,28 +1863,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1869,28 +1896,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1902,28 +1929,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1935,66 +1962,165 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1338.1500000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>111</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>112</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>99</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>113</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>72</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>99</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>73</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>117</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>99</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>118</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1424.8499999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2153,10 +2279,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 12:12 PM</t>
+    <t>Tuesday, 3 June, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -317,6 +317,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -371,7 +383,19 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 12:16 PM</t>
+    <t>مكنه حلاقه VIP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 3 June, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1837,7 +1861,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,7 +1887,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,7 +1920,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1913,11 +1937,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1929,7 +1953,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1946,11 +1970,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1962,14 +1986,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1979,11 +2003,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1995,14 +2019,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2012,11 +2036,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2028,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2045,11 +2069,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2061,14 +2085,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2078,49 +2102,115 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1424.8499999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>121</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>99</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>122</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>124</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>125</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>99</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>126</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1479.8499999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>129</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>130</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2384,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -236,6 +236,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -395,7 +407,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 12:17 PM</t>
+    <t>Tuesday, 3 June, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1642,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,11 +1652,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1746,7 +1758,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1762,7 +1774,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,11 +1784,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1812,7 +1824,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1834,15 +1846,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1854,20 +1866,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1894,24 +1906,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,7 +1932,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1933,18 +1945,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,7 +1965,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1966,15 +1978,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1986,7 +1998,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1999,15 +2011,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2019,28 +2031,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2052,28 +2064,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2085,28 +2097,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2118,28 +2130,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2164,7 +2176,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2179,38 +2191,71 @@
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1479.8499999999999</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>128</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>129</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>103</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>130</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1521.8499999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>132</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>133</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>134</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2394,10 +2439,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 12:24 PM</t>
+    <t>Tuesday, 3 June, 2025 12:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -341,6 +341,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -407,7 +419,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 12:31 PM</t>
+    <t>Tuesday, 3 June, 2025 12:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1939,7 +1951,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,7 +1977,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,7 +2010,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2015,11 +2027,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2031,7 +2043,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2048,11 +2060,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2081,11 +2093,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,11 +2126,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2147,11 +2159,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2163,14 +2175,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2180,11 +2192,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2224,38 +2236,71 @@
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1521.8499999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>132</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>133</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>103</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>134</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1566.8499999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>136</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>137</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>138</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2444,10 +2489,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
     <t>NO DEPRINE 50MG 30 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -419,7 +425,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 12:37 PM</t>
+    <t>Tuesday, 3 June, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1433,14 +1439,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1449,14 +1455,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1466,11 +1472,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1482,14 +1488,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1522,7 +1528,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1532,14 +1538,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1548,14 +1554,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1565,7 +1571,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1588,7 +1594,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1598,14 +1604,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1621,7 +1627,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1631,14 +1637,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1647,14 +1653,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,11 +1670,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1680,14 +1686,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1697,11 +1703,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1730,11 +1736,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1746,14 +1752,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1763,11 +1769,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1779,14 +1785,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1796,14 +1802,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1812,14 +1818,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1829,11 +1835,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1868,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1878,28 +1884,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1911,28 +1917,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1944,28 +1950,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1977,31 +1983,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,31 +2016,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,28 +2049,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2076,28 +2082,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2109,28 +2115,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2149,21 +2155,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2175,28 +2181,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2208,28 +2214,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2241,66 +2247,99 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>135</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1566.8499999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>105</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>136</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1624.8499999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
         <v>138</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>139</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>140</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2494,10 +2533,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -362,10 +371,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -425,7 +431,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 1:47 PM</t>
+    <t>Tuesday, 3 June, 2025 2:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,7 +1534,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1561,7 +1567,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1578,7 +1584,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1604,11 +1610,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1620,14 +1626,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,14 +1643,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,14 +1659,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1674,10 +1680,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1703,11 +1709,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1719,14 +1725,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1759,7 +1765,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,11 +1775,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1785,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,11 +1808,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1818,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1835,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1851,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1891,7 +1897,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,14 +1907,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1917,28 +1923,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1950,28 +1956,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1983,28 +1989,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2016,31 +2022,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2062,18 +2068,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,7 +2088,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2095,15 +2101,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2115,7 +2121,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2128,15 +2134,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2148,28 +2154,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2188,21 +2194,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2214,28 +2220,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2247,28 +2253,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2280,66 +2286,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>137</v>
       </c>
-      <c t="s" r="Q44" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1624.8499999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>108</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>138</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1639.72</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
         <v>140</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>141</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2538,10 +2577,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -404,21 +404,30 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>30:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مكنه حلاقه VIP</t>
   </si>
   <si>
@@ -431,7 +440,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 2:06 PM</t>
+    <t>Tuesday, 3 June, 2025 3:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2260,7 +2269,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,11 +2279,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,11 +2312,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2340,45 +2349,78 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>139</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1639.72</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>140</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>108</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>141</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1690.72</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>143</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>144</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>145</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2624,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 3:01 PM</t>
+    <t>Tuesday, 3 June, 2025 3:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -329,15 +338,21 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
     <t>27:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -440,7 +455,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 3:02 PM</t>
+    <t>Tuesday, 3 June, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1213,7 +1228,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1223,11 +1238,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1239,14 +1254,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1256,11 +1271,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1272,14 +1287,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1296,7 +1311,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1312,7 +1327,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1329,7 +1344,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1345,7 +1360,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1362,7 +1377,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1378,7 +1393,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1395,7 +1410,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1411,7 +1426,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1444,7 +1459,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,14 +1469,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1487,14 +1502,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,14 +1518,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,11 +1535,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1536,14 +1551,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1576,7 +1591,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1609,7 +1624,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1626,7 +1641,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1642,7 +1657,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,11 +1667,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1685,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1722,10 +1737,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,11 +1766,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1807,7 +1822,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,11 +1832,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,11 +1865,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1939,7 +1954,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,28 +1980,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1998,28 +2013,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2031,28 +2046,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2064,31 +2079,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,20 +2112,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2137,24 +2152,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,28 +2178,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2196,28 +2211,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2229,28 +2244,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2275,15 +2290,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2295,28 +2310,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2341,7 +2356,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2349,10 +2364,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2361,66 +2376,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>141</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
         <v>142</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1690.72</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>111</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>143</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>144</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>145</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>111</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>146</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1780.02</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>148</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>149</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>150</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2629,10 +2710,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -455,7 +455,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 4:57 PM</t>
+    <t>Tuesday, 3 June, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -455,7 +464,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 5:05 PM</t>
+    <t>Tuesday, 3 June, 2025 5:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1270,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1271,11 +1280,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1287,14 +1296,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1304,11 +1313,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1320,14 +1329,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1344,7 +1353,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1360,7 +1369,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1377,7 +1386,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1393,7 +1402,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1410,7 +1419,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1426,7 +1435,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1443,7 +1452,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1459,7 +1468,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1492,7 +1501,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1535,14 +1544,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,11 +1577,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1624,7 +1633,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1657,7 +1666,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1770,10 +1779,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1799,11 +1808,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1855,7 +1864,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,11 +1874,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,11 +1907,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1987,7 +1996,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2013,28 +2022,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2059,15 +2068,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2079,28 +2088,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2112,28 +2121,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2145,31 +2154,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,31 +2187,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2218,21 +2227,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2244,28 +2253,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2277,28 +2286,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2310,28 +2319,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2350,21 +2359,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2376,28 +2385,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2409,31 +2418,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2455,7 +2464,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2463,45 +2472,78 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>147</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1780.02</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>148</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>114</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>149</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1815.6600000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2720,10 +2762,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -62,12 +74,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -98,6 +122,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -149,6 +182,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DIAMEDIZEN 60MG MR 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -188,9 +230,6 @@
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>58.0000</t>
   </si>
   <si>
@@ -290,6 +329,9 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -395,7 +437,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -422,12 +467,6 @@
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -464,7 +503,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 5:06 PM</t>
+    <t>Tuesday, 3 June, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1177,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1148,14 +1187,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1188,7 +1227,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1197,14 +1236,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1221,7 +1260,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1237,7 +1276,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1247,14 +1286,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1263,14 +1302,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1280,11 +1319,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1296,14 +1335,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1313,14 +1352,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1329,14 +1368,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1353,7 +1392,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1369,7 +1408,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1386,7 +1425,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1402,7 +1441,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,14 +1451,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1428,14 +1467,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,14 +1484,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1461,14 +1500,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,11 +1517,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1494,14 +1533,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,11 +1550,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1527,14 +1566,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,14 +1583,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1560,14 +1599,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1577,14 +1616,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1593,14 +1632,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1617,7 +1656,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1633,7 +1672,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1650,7 +1689,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1666,7 +1705,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1676,11 +1715,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1692,14 +1731,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1716,7 +1755,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1732,7 +1771,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,14 +1781,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1758,14 +1797,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1814,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,14 +1830,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,14 +1847,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,14 +1863,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,14 +1880,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,14 +1913,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1897,7 +1936,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1946,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,14 +1962,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,14 +1979,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1956,14 +1995,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,11 +2012,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,11 +2045,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,31 +2094,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,31 +2127,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,31 +2160,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,31 +2193,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,31 +2226,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,31 +2259,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,31 +2292,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2293,24 +2332,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,31 +2358,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,7 +2391,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2365,18 +2404,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,31 +2424,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,31 +2457,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,31 +2490,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,66 +2523,231 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1815.6600000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>151</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>16</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>128</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>58</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>152</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>153</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>128</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>154</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>96</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>128</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>97</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>157</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>158</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>128</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>159</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>160</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>161</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>128</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1970.31</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>164</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>165</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>166</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2971,35 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -89,6 +101,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -122,6 +143,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CINNARIZINE 25MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -173,6 +203,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAFLOX EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -209,6 +251,24 @@
     <t>254.7600</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -254,9 +314,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -344,6 +401,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -395,9 +461,6 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -437,10 +500,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>28.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -488,9 +548,6 @@
     <t>30:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>مكنه حلاقه VIP</t>
   </si>
   <si>
@@ -503,7 +560,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 5:24 PM</t>
+    <t>Tuesday, 3 June, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,13 +1267,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1227,7 +1284,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1236,14 +1293,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1260,7 +1317,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1269,14 +1326,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1309,7 +1366,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1319,14 +1376,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1335,14 +1392,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1375,7 +1432,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1385,14 +1442,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1401,7 +1458,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1418,11 +1475,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1434,14 +1491,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1474,7 +1531,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1484,11 +1541,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1500,7 +1557,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1517,14 +1574,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1533,14 +1590,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1557,7 +1614,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1573,7 +1630,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,11 +1640,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1599,14 +1656,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1673,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,7 +1689,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1649,14 +1706,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1665,14 +1722,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1682,14 +1739,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1698,14 +1755,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1772,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,14 +1788,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1748,14 +1805,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1821,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,7 +1838,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1804,21 +1861,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1830,14 +1887,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,11 +1904,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1863,14 +1920,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,14 +1937,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1896,7 +1953,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1913,11 +1970,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1929,14 +1986,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,11 +2003,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1962,14 +2019,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +2036,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2052,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2069,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,14 +2085,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2045,14 +2102,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,14 +2118,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,11 +2135,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2094,14 +2151,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,11 +2168,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2127,14 +2184,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2148,10 +2205,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2160,14 +2217,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,14 +2234,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,14 +2250,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2217,7 +2274,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2233,7 +2290,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,11 +2300,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2259,28 +2316,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2292,28 +2349,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2325,31 +2382,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,28 +2415,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2391,31 +2448,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,31 +2481,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,28 +2514,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2497,21 +2554,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2523,28 +2580,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2556,28 +2613,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2589,28 +2646,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2622,31 +2679,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2655,31 +2712,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2688,66 +2745,297 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1970.31</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>164</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>165</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>166</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>22</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>152</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>170</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>22</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>116</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>22</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>72</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>173</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>22</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>115</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>22</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>116</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>177</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>178</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>22</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>45</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>180</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>22</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>181</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2310.3899999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>183</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>184</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>185</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2996,10 +3284,45 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -560,7 +560,19 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 5:28 PM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 3 June, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3004,38 +3016,71 @@
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2310.3899999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>183</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>184</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>22</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>185</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2345.3899999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>187</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>188</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>189</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3319,10 +3364,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -89,30 +89,33 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -296,9 +299,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -332,6 +332,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>NO DEPRINE 50MG 30 TAB</t>
   </si>
   <si>
@@ -425,9 +434,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -500,7 +506,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -572,7 +581,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 5:30 PM</t>
+    <t>Tuesday, 3 June, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1378,7 +1387,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1388,11 +1397,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1421,11 +1430,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1437,14 +1446,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1454,11 +1463,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1470,7 +1479,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1487,11 +1496,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1503,14 +1512,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1520,11 +1529,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1536,7 +1545,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1553,11 +1562,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1569,7 +1578,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1586,11 +1595,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1602,14 +1611,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1619,11 +1628,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1635,14 +1644,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1652,11 +1661,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1668,14 +1677,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1685,11 +1694,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1701,7 +1710,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1718,11 +1727,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1734,7 +1743,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1784,11 +1793,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1800,7 +1809,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1833,7 +1842,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1854,7 +1863,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1883,11 +1892,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1899,7 +1908,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1916,11 +1925,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1965,7 +1974,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1986,7 +1995,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2052,7 +2061,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2071,7 +2080,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2104,7 +2113,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2137,7 +2146,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2154,7 +2163,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2180,11 +2189,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2213,14 +2222,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2250,10 +2259,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2279,11 +2288,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2335,7 +2344,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2378,11 +2387,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2418,7 +2427,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2434,7 +2443,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2559,28 +2568,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2790,7 +2799,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2840,11 +2849,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2906,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3038,49 +3047,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>186</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2345.3899999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>187</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>22</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>188</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2372.4299999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>190</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>191</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>192</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3369,10 +3411,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -122,42 +122,57 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BIOREST MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CINNARIZINE 25MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CINNARIZINE 25MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -401,9 +416,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -422,9 +434,6 @@
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>175.00</t>
   </si>
   <si>
@@ -536,6 +545,9 @@
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
+    <t>كريم فاتيكا بالارجان 70 مل</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -581,7 +593,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 5:51 PM</t>
+    <t>Tuesday, 3 June, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1438,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1437,7 +1449,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1470,7 +1482,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1486,7 +1498,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1496,14 +1508,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1512,14 +1524,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1529,11 +1541,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1545,14 +1557,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1562,11 +1574,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1578,7 +1590,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1595,11 +1607,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1611,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,11 +1640,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,11 +1673,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1727,11 +1739,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,11 +1772,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1805,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1871,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,28 +1887,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1908,28 +1920,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,11 +1970,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2003,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2024,14 +2036,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,11 +2069,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,11 +2102,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2123,11 +2135,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,11 +2168,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,7 +2217,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2222,11 +2234,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2238,14 +2250,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,14 +2267,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2271,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,14 +2300,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,14 +2316,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,11 +2333,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,11 +2366,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2403,14 +2415,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2420,11 +2432,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2436,7 +2448,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2493,7 +2505,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2509,7 +2521,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2526,7 +2538,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2542,7 +2554,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2575,7 +2587,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2597,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,28 +2613,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,11 +2663,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,11 +2696,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2816,11 +2828,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2832,7 +2844,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2849,11 +2861,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2915,11 +2927,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,11 +2960,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2981,11 +2993,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3080,49 +3092,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>187</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>22</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>188</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2372.4299999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>190</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>191</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>22</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>192</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2493.23</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>194</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>195</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>196</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3416,10 +3494,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -377,6 +377,15 @@
     <t>150.00</t>
   </si>
   <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -593,7 +602,13 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 6:01 PM</t>
+    <t>مينك كريم 125 مل</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 3 June, 2025 6:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2323,7 +2338,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,11 +2348,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2422,7 +2437,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,11 +2447,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2488,7 +2503,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2505,7 +2520,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2521,7 +2536,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2538,7 +2553,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2554,7 +2569,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2571,7 +2586,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2587,7 +2602,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2620,7 +2635,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2646,28 +2661,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2861,11 +2876,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2877,7 +2892,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2894,11 +2909,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2927,11 +2942,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2960,11 +2975,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2976,7 +2991,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3026,11 +3041,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3059,11 +3074,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3092,14 +3107,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3125,14 +3140,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3158,49 +3173,115 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>193</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2493.23</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>194</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>22</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>195</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>22</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>78</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2653.23</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>199</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>200</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>201</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3504,10 +3585,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 6:04 PM</t>
+    <t>Tuesday, 3 June, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>CINNARIZINE 25MG 20 TAB.</t>
   </si>
   <si>
@@ -249,6 +258,12 @@
   </si>
   <si>
     <t>30.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 30MG M.R. 30 TAB</t>
+  </si>
+  <si>
+    <t>36.0000</t>
   </si>
   <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
@@ -1563,7 +1578,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1579,7 +1594,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1589,11 +1604,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1678,7 +1693,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1688,11 +1703,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1721,11 +1736,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1810,7 +1825,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1843,7 +1858,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1860,7 +1875,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1876,7 +1891,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1919,7 +1934,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1942,24 +1957,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1968,7 +1983,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1985,11 +2000,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2001,28 +2016,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2074,7 +2089,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2107,7 +2122,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2150,11 +2165,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2187,7 +2202,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2305,7 +2320,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2319,10 +2334,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2331,7 +2346,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2348,7 +2363,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2371,7 +2386,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,11 +2594,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,11 +2627,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,31 +2709,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,28 +2742,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,11 +2792,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2892,7 +2907,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,7 +2940,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3097,7 +3112,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3239,49 +3254,115 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>198</v>
       </c>
-      <c t="s" r="Q67" s="12">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>199</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>22</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>200</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>202</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>22</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>81</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2653.23</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>199</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>200</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>201</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2785.23</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>204</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>205</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>206</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3595,10 +3676,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -380,6 +389,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -512,6 +530,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بلسم MINK</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -539,10 +566,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -557,6 +584,9 @@
     <t>سرنجه دواء</t>
   </si>
   <si>
+    <t>فاتيكا بلسم 180مل</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -623,7 +653,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 6:05 PM</t>
+    <t>Tuesday, 3 June, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1525,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1505,14 +1535,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1521,14 +1551,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1538,14 +1568,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1554,14 +1584,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1611,7 +1641,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1627,7 +1657,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1637,11 +1667,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1653,14 +1683,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1726,7 +1756,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1736,11 +1766,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1752,14 +1782,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1769,11 +1799,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1785,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1802,14 +1832,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1818,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1858,7 +1888,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1901,11 +1931,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1934,14 +1964,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1957,7 +1987,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1974,7 +2004,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1990,7 +2020,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2000,14 +2030,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2016,28 +2046,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2049,20 +2079,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2089,7 +2119,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2122,7 +2152,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2132,14 +2162,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2188,7 +2218,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2198,11 +2228,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2221,7 +2251,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2231,11 +2261,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2254,7 +2284,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2287,7 +2317,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2320,7 +2350,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2337,7 +2367,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2363,11 +2393,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2412,7 +2442,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2429,11 +2459,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2466,10 +2496,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2561,11 +2591,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2594,11 +2624,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2650,7 +2680,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2683,7 +2713,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2716,7 +2746,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2733,7 +2763,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2749,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2759,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2775,31 +2805,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2821,7 +2851,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2858,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,11 +2921,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2907,7 +2937,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2924,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,11 +2987,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2990,11 +3020,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3006,7 +3036,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3027,10 +3057,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3056,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3072,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,11 +3119,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3105,7 +3135,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3122,11 +3152,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3138,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3155,11 +3185,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3188,11 +3218,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3204,14 +3234,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3221,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3237,14 +3267,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3254,11 +3284,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3270,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3287,11 +3317,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3303,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,49 +3350,181 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>203</v>
       </c>
-      <c t="s" r="Q69" s="12">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>22</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>56</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2785.23</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>204</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>205</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>22</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>206</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>209</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>22</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>210</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>22</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>84</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3097.7800000000002</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>214</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>215</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>216</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3686,10 +3848,30 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -218,162 +218,165 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DIAMEDIZEN 60MG MR 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 30MG M.R. 30 TAB</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>254.7600</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DIAMEDIZEN 60MG MR 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 30MG M.R. 30 TAB</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>61.8750</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>254.7600</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 6:15 PM</t>
+    <t>Tuesday, 3 June, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1789,7 +1792,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,11 +1802,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1815,14 +1818,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,11 +1835,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1848,14 +1851,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,11 +1868,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1881,7 +1884,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1898,11 +1901,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1914,7 +1917,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1931,11 +1934,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1947,7 +1950,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1964,11 +1967,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1980,7 +1983,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1997,11 +2000,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2013,7 +2016,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2030,14 +2033,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>69</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2317,7 +2320,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2350,7 +2353,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2376,7 +2379,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2393,11 +2396,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2409,7 +2412,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2426,11 +2429,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2463,7 +2466,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2492,11 +2495,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2508,7 +2511,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2525,11 +2528,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2541,14 +2544,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,11 +2561,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2574,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,11 +2594,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2624,11 +2627,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2640,7 +2643,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2657,11 +2660,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2690,11 +2693,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2723,11 +2726,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2739,7 +2742,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2756,11 +2759,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2789,11 +2792,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2805,7 +2808,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2822,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2838,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,11 +2858,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2871,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,11 +2891,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2904,14 +2907,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2937,7 +2940,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2954,11 +2957,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2970,14 +2973,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,11 +2990,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3003,14 +3006,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,11 +3023,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3036,7 +3039,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3053,14 +3056,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,7 +3072,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3086,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3119,11 +3122,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3152,11 +3155,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3185,11 +3188,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3201,14 +3204,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,11 +3221,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3234,7 +3237,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3251,11 +3254,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3267,7 +3270,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3284,11 +3287,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3300,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3317,11 +3320,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3333,14 +3336,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3350,11 +3353,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3366,14 +3369,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3387,7 +3390,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>38</v>
@@ -3399,14 +3402,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,11 +3419,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3432,14 +3435,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,11 +3452,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3465,7 +3468,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3482,11 +3485,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>38</v>
@@ -3500,7 +3503,7 @@
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c t="s" r="A75" s="14">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3508,13 +3511,13 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c t="s" r="G75" s="15">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
       <c t="s" r="K75" s="17">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -125,9 +137,6 @@
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -167,6 +176,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
   </si>
   <si>
@@ -182,9 +203,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -311,6 +329,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -344,6 +371,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -407,6 +443,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -446,6 +494,18 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -458,6 +518,18 @@
     <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -557,15 +629,24 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -641,13 +722,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>40:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
+    <t>39:0</t>
   </si>
   <si>
     <t>مينك كريم 125 مل</t>
@@ -1363,13 +1438,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1396,13 +1471,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1413,7 +1488,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1422,14 +1497,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1446,7 +1521,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1455,14 +1530,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1501,7 +1576,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1512,7 +1587,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1528,13 +1603,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1561,7 +1636,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1571,14 +1646,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1587,14 +1662,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1604,14 +1679,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1620,14 +1695,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1660,24 +1735,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1686,14 +1761,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1710,7 +1785,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1740,7 +1815,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1752,14 +1827,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1792,7 +1867,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1825,7 +1900,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1835,11 +1910,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1851,14 +1926,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1868,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1884,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1901,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1917,14 +1992,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1957,7 +2032,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1967,11 +2042,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1983,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2016,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,14 +2108,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2049,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,7 +2141,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2089,24 +2164,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2132,11 +2207,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2148,20 +2223,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2188,7 +2263,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,11 +2273,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2214,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2231,11 +2306,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2247,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2268,7 +2343,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2280,14 +2355,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2297,14 +2372,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2320,7 +2395,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2353,7 +2428,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2363,11 +2438,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2379,14 +2454,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2400,10 +2475,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2412,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2429,11 +2504,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2445,14 +2520,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,14 +2537,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2485,7 +2560,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,11 +2570,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2511,7 +2586,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2528,11 +2603,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2544,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2577,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,11 +2669,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2610,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2634,7 +2709,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2660,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2676,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2693,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2709,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2742,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2759,11 +2834,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2775,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2808,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,11 +2900,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2841,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2881,21 +2956,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2907,31 +2982,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2940,28 +3015,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2973,31 +3048,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,28 +3081,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3039,31 +3114,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>187</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3072,31 +3147,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,28 +3180,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3145,21 +3220,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3171,28 +3246,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3204,28 +3279,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3237,28 +3312,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3270,28 +3345,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3303,28 +3378,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3336,31 +3411,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,31 +3444,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,28 +3477,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3435,28 +3510,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3468,7 +3543,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3481,53 +3556,350 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3097.7800000000002</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>215</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>216</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>217</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>221</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>222</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>26</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>155</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>223</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>16</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>26</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>89</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>224</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>16</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>26</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>89</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>226</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>26</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>227</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>154</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>26</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>155</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>231</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>26</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>63</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>233</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>26</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>234</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>236</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>237</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>26</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>210</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>238</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>12</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>26</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>89</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3456.165</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>240</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>241</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>242</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3871,10 +4243,55 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -482,6 +482,27 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -539,6 +560,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -647,13 +677,19 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -686,6 +722,12 @@
     <t>كريم فاتيكا بالارجان 70 مل</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -704,7 +746,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>12:0</t>
   </si>
   <si>
     <t>مكنه حلاقه VIP</t>
@@ -731,7 +782,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 6:57 PM</t>
+    <t>Tuesday, 3 June, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2824,7 +2875,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,11 +2885,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2850,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2949,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,31 +3033,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3015,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,11 +3083,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3055,21 +3106,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3081,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,11 +3149,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3114,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,11 +3215,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3180,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3220,24 +3271,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,20 +3297,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3270,7 +3321,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3286,21 +3337,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3312,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,11 +3380,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3345,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3385,7 +3436,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3411,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3451,7 +3502,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3484,7 +3535,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,11 +3545,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3510,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,11 +3578,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3543,7 +3594,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3560,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,11 +3644,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3609,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,11 +3677,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3642,7 +3693,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3659,11 +3710,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3675,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3692,11 +3743,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3708,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3741,14 +3792,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,14 +3809,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,11 +3842,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3807,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3847,7 +3898,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,49 +3908,280 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>239</v>
       </c>
-      <c t="s" r="Q82" s="12">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>240</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>26</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>241</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>243</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>154</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>26</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>155</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>244</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>245</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>26</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>63</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>247</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>248</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>26</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>220</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>250</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>26</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>251</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>253</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>254</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>26</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>220</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3456.165</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>240</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>241</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>242</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>255</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>26</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>89</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3763.7649999999999</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>257</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>258</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>259</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4288,10 +4570,45 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 7:22 PM</t>
+    <t>Tuesday, 3 June, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -311,6 +311,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -782,7 +791,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 7:28 PM</t>
+    <t>Tuesday, 3 June, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2258,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,28 +2283,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2307,20 +2316,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2331,7 +2340,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2364,7 +2373,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2380,7 +2389,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2413,7 +2422,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2479,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2512,7 +2521,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,11 +2531,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2545,7 +2554,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,11 +2564,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2578,7 +2587,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2611,7 +2620,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,11 +2630,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2661,7 +2670,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2677,7 +2686,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2694,7 +2703,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2790,7 +2799,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,11 +2861,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2908,7 +2917,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,11 +2993,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3040,7 +3049,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3057,7 +3066,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3073,7 +3082,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3099,31 +3108,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,20 +3141,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3156,7 +3165,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3172,7 +3181,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3205,7 +3214,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3222,7 +3231,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3238,7 +3247,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3255,7 +3264,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3288,7 +3297,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,7 +3313,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3337,7 +3346,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,28 +3372,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3422,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3469,7 +3478,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,11 +3488,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3535,7 +3544,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3582,7 +3591,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3594,7 +3603,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>229</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,11 +3785,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,11 +3818,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3825,7 +3834,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,11 +3884,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,11 +3917,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4139,49 +4148,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3763.7649999999999</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>257</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>258</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>26</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>89</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>259</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3818.7649999999999</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>260</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>261</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>262</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4605,10 +4647,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -299,6 +299,18 @@
     <t>61.8750</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -356,6 +368,15 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -401,9 +422,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -482,9 +500,6 @@
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -791,7 +806,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 7:30 PM</t>
+    <t>Tuesday, 3 June, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2224,7 +2239,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2249,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2257,7 +2272,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2274,7 +2289,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,7 +2298,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2300,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2316,24 +2331,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2356,24 +2371,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2382,7 +2397,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2432,11 +2447,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,11 +2513,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2568,7 +2583,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2597,11 +2612,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,11 +2645,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,11 +2678,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2818,7 +2833,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2851,7 +2866,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2898,10 +2913,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2910,7 +2925,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2927,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2993,11 +3008,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3049,7 +3064,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,14 +3140,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3141,20 +3156,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3165,7 +3180,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3181,7 +3196,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,11 +3206,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3207,31 +3222,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,11 +3305,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3323,11 +3338,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3405,31 +3420,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3438,28 +3453,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,11 +3569,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,11 +3602,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,7 +3705,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3702,7 +3717,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3768,7 +3783,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3785,11 +3800,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,11 +3833,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3884,11 +3899,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,11 +3932,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3933,7 +3948,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3950,11 +3965,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4006,7 +4021,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,11 +4031,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4049,14 +4064,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>63</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4097,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,14 +4163,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,49 +4196,115 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>262</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>26</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>228</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3818.7649999999999</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>260</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>261</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>262</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>12</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>26</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>89</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>3883.7649999999999</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>265</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>266</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>267</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4652,10 +4733,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -806,7 +815,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 7:32 PM</t>
+    <t>Tuesday, 3 June, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2611,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2668,7 +2677,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,11 +2687,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,7 +2720,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2734,7 +2743,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2784,7 +2793,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2817,7 +2826,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2913,7 +2922,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2965,7 +2974,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2998,7 +3007,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3031,7 +3040,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3163,7 +3172,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3180,7 +3189,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3196,7 +3205,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3222,31 +3231,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,20 +3264,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3279,7 +3288,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3295,7 +3304,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3328,7 +3337,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3345,7 +3354,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3378,7 +3387,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3394,7 +3403,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3411,7 +3420,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3427,7 +3436,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3460,7 +3469,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,28 +3495,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3592,7 +3601,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3611,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3658,7 +3667,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3705,7 +3714,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3717,7 +3726,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>237</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,11 +3842,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,11 +3875,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,11 +3908,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,11 +3941,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3948,7 +3957,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,11 +4007,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,11 +4040,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,49 +4271,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>3883.7649999999999</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>265</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>266</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>26</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>89</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4123.7650000000003</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>268</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>269</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>270</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4743,10 +4785,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -329,9 +329,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -815,7 +812,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 7:34 PM</t>
+    <t>Tuesday, 3 June, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2314,7 +2311,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2328,10 +2325,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2340,7 +2337,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2361,7 +2358,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2373,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2390,11 +2387,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2406,7 +2403,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2423,11 +2420,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2439,7 +2436,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2456,11 +2453,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2472,7 +2469,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2489,11 +2486,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2505,7 +2502,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2522,11 +2519,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2538,7 +2535,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2559,7 +2556,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2571,7 +2568,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2588,11 +2585,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2604,7 +2601,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2621,11 +2618,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2637,7 +2634,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2654,11 +2651,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2670,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2687,7 +2684,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2703,7 +2700,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2724,7 +2721,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2736,7 +2733,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2753,11 +2750,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2769,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,11 +2783,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2802,7 +2799,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2819,11 +2816,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2835,7 +2832,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2852,11 +2849,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2868,7 +2865,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2889,7 +2886,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2901,14 +2898,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2918,11 +2915,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2934,7 +2931,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2951,11 +2948,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2967,7 +2964,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2984,11 +2981,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3000,7 +2997,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3017,11 +3014,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3033,7 +3030,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3050,11 +3047,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3066,14 +3063,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,11 +3080,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3099,14 +3096,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3116,11 +3113,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3132,7 +3129,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3149,11 +3146,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3165,7 +3162,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3182,11 +3179,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3198,7 +3195,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3215,11 +3212,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3231,7 +3228,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3264,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3281,11 +3278,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3297,7 +3294,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3314,11 +3311,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3330,7 +3327,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3347,11 +3344,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3363,7 +3360,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3380,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3396,7 +3393,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3413,11 +3410,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3429,7 +3426,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3446,11 +3443,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3462,7 +3459,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3479,11 +3476,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3495,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3509,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3528,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,11 +3542,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3561,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3575,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3594,7 +3591,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3611,11 +3608,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3627,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,11 +3641,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3660,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,11 +3674,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3693,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,11 +3707,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3726,7 +3723,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3743,11 +3740,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3759,7 +3756,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3776,14 +3773,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>236</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>237</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,7 +3789,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3809,11 +3806,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3825,7 +3822,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3842,11 +3839,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,7 +3855,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3875,11 +3872,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,7 +3888,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3908,11 +3905,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3924,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,11 +3938,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3957,7 +3954,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3990,7 +3987,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4023,7 +4020,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4040,11 +4037,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4056,7 +4053,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4073,11 +4070,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4089,14 +4086,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,11 +4103,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4122,7 +4119,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4139,11 +4136,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4155,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>97</v>
@@ -4188,14 +4185,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,11 +4202,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4221,14 +4218,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,11 +4235,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4254,14 +4251,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,11 +4268,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4287,7 +4284,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4308,7 +4305,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4316,13 +4313,13 @@
     </row>
     <row r="94" ht="25.5" customHeight="1">
       <c r="P94" s="13">
-        <v>4123.7650000000003</v>
+        <v>4178.7650000000003</v>
       </c>
       <c r="Q94" s="13"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
       <c t="s" r="A95" s="14">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4330,13 +4327,13 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c t="s" r="G95" s="15">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="16"/>
       <c t="s" r="K95" s="17">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -137,6 +137,9 @@
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -167,7 +170,7 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>34:0</t>
   </si>
   <si>
     <t>31.00</t>
@@ -302,9 +305,6 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -368,6 +368,9 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -698,9 +704,6 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -812,7 +815,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 7:38 PM</t>
+    <t>Tuesday, 3 June, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1687,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1694,11 +1697,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1710,7 +1713,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1727,11 +1730,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1743,14 +1746,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1760,11 +1763,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1793,11 +1796,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1826,11 +1829,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1842,7 +1845,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1859,11 +1862,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1908,14 +1911,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1925,11 +1928,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1941,7 +1944,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1974,7 +1977,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1991,11 +1994,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,11 +2027,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2040,14 +2043,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2057,11 +2060,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2073,14 +2076,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2090,11 +2093,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2106,7 +2109,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2123,11 +2126,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2139,7 +2142,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2156,11 +2159,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2172,7 +2175,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2189,11 +2192,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,11 +2225,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2238,14 +2241,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2325,7 +2328,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2476,7 +2479,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,11 +2489,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2502,7 +2505,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2519,11 +2522,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2535,7 +2538,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2556,7 +2559,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2568,7 +2571,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2585,11 +2588,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2618,11 +2621,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2651,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,11 +2687,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2721,7 +2724,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2750,11 +2753,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2766,14 +2769,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2783,11 +2786,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2799,7 +2802,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2832,7 +2835,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,11 +2918,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2931,7 +2934,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2964,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3063,14 +3066,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3096,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3129,7 +3132,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,11 +3182,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3195,14 +3198,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,11 +3215,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3228,7 +3231,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3261,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3360,14 +3363,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,11 +3380,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3459,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,11 +3512,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3591,7 +3594,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3657,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3690,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,11 +3710,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3740,11 +3743,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3789,7 +3792,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3822,7 +3825,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3839,11 +3842,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3855,7 +3858,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3872,11 +3875,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3888,7 +3891,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3905,11 +3908,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3921,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,11 +3941,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3954,7 +3957,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3971,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3987,7 +3990,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4004,11 +4007,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4020,7 +4023,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4037,11 +4040,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4053,7 +4056,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4070,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4103,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4119,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4136,11 +4139,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4235,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4284,7 +4287,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4301,11 +4304,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="95" ht="16.5" customHeight="1">
       <c t="s" r="A95" s="14">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4327,13 +4330,13 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c t="s" r="G95" s="15">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="16"/>
       <c t="s" r="K95" s="17">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>240.00</t>
   </si>
   <si>
-    <t>240.0000</t>
+    <t>480.0000</t>
   </si>
   <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
@@ -692,6 +692,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -719,48 +728,48 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>فاتيكا بلسم 180مل</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا بالارجان 70 مل</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>فاتيكا بلسم 180مل</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 65 مل</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا بالارجان 70 مل</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>كريم كير اند مور75مل</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -812,10 +821,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 3 June, 2025 7:43 PM</t>
+    <t>Tuesday, 3 June, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2611,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2628,7 +2634,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3667,7 +3673,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3684,7 +3690,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3700,7 +3706,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3733,7 +3739,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3747,7 +3753,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3759,7 +3765,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3776,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3809,14 +3815,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3842,11 +3848,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,11 +3881,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,11 +3914,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3924,14 +3930,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,11 +3947,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3964,7 +3970,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,11 +3980,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3990,7 +3996,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4023,14 +4029,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,11 +4046,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4056,14 +4062,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,11 +4079,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4089,14 +4095,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,11 +4112,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4122,14 +4128,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,11 +4145,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,14 +4178,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4205,14 +4211,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,11 +4244,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4287,14 +4293,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,49 +4310,82 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4178.7650000000003</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>268</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>269</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>12</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>26</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>90</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4444.7650000000003</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
         <v>270</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>271</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>272</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4790,10 +4829,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -419,6 +419,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -431,9 +440,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -458,6 +464,18 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>9.8000</t>
+  </si>
+  <si>
     <t>NO DEPRINE 50MG 30 TAB</t>
   </si>
   <si>
@@ -641,6 +659,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -728,100 +755,103 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>فاتيكا بلسم 180مل</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا بالارجان 70 مل</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>مكنه حلاقه VIP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>مينك كريم 125 مل</t>
+  </si>
+  <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>فاتيكا بلسم 180مل</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 65 مل</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا بالارجان 70 مل</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>كريم كير اند مور75مل</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم للبشره العاديه </t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>مكنه حلاقه VIP</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب صغيره</t>
-  </si>
-  <si>
-    <t>39:0</t>
-  </si>
-  <si>
-    <t>مينك كريم 125 مل</t>
-  </si>
-  <si>
-    <t>Tuesday, 3 June, 2025 7:51 PM</t>
+    <t>Tuesday, 3 June, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2683,7 +2713,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,14 +2723,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2726,11 +2756,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2749,7 +2779,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,11 +2789,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,11 +2822,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2855,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2841,20 +2871,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2891,11 +2921,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2947,7 +2977,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,14 +2987,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2980,7 +3010,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3020,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3079,7 +3109,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,14 +3119,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,11 +3152,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3138,14 +3168,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,14 +3185,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3218,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3234,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,11 +3251,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3244,7 +3274,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3284,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,31 +3300,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,11 +3350,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3336,20 +3366,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3360,7 +3390,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3376,7 +3406,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3393,7 +3423,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3409,7 +3439,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3442,7 +3472,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3475,7 +3505,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3492,7 +3522,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3508,7 +3538,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3548,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,31 +3564,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3574,24 +3604,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,20 +3630,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3650,11 +3680,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3666,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,11 +3746,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3732,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3786,10 +3816,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,11 +3878,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3864,7 +3894,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3881,11 +3911,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3897,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,14 +3944,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,7 +3960,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3947,11 +3977,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3963,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3980,11 +4010,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3996,7 +4026,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4013,11 +4043,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4029,14 +4059,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,11 +4076,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4062,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,11 +4109,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4095,7 +4125,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4112,11 +4142,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4128,14 +4158,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,11 +4175,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4161,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,11 +4208,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4194,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,11 +4274,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4260,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4310,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4326,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,49 +4373,148 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>272</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>273</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>26</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>274</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>276</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>277</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>26</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>243</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4444.7650000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>270</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>271</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>272</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>278</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>26</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>90</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4594.8850000000002</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>280</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>281</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>282</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4834,10 +4963,25 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -431,12 +431,15 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -755,10 +758,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>31:0</t>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -851,7 +854,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 8:43 PM</t>
+    <t>Tuesday, 3 June, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2760,10 +2763,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,7 +2775,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2805,7 +2808,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2822,11 +2825,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2838,14 +2841,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2855,11 +2858,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2871,14 +2874,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,11 +2891,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2904,7 +2907,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2921,11 +2924,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2937,7 +2940,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2954,11 +2957,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2970,7 +2973,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3003,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,11 +3023,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3036,7 +3039,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3053,11 +3056,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3069,7 +3072,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3086,11 +3089,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3119,11 +3122,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3152,11 +3155,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3168,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,11 +3188,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3201,14 +3204,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,11 +3221,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3234,7 +3237,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3251,11 +3254,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3267,7 +3270,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3284,11 +3287,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3300,7 +3303,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3317,11 +3320,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3333,7 +3336,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3366,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3399,7 +3402,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3416,11 +3419,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3432,7 +3435,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3449,11 +3452,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3465,7 +3468,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3482,11 +3485,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3498,7 +3501,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3515,11 +3518,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3531,7 +3534,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3548,11 +3551,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3564,7 +3567,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3581,11 +3584,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3597,7 +3600,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3614,11 +3617,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3630,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,11 +3650,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3663,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,11 +3683,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3696,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,11 +3716,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3729,7 +3732,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3746,11 +3749,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3762,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,11 +3782,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3795,7 +3798,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3812,11 +3815,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3828,14 +3831,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,11 +3848,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3861,7 +3864,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3878,11 +3881,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3894,7 +3897,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3911,11 +3914,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3927,7 +3930,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3944,14 +3947,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,7 +3963,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3977,11 +3980,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3993,7 +3996,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4010,11 +4013,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4026,7 +4029,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4043,11 +4046,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4059,7 +4062,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4076,11 +4079,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4092,14 +4095,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,11 +4112,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4125,7 +4128,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4158,7 +4161,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4191,7 +4194,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4208,11 +4211,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4224,7 +4227,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4241,11 +4244,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4257,14 +4260,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,11 +4277,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4290,7 +4293,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4307,11 +4310,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4323,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>42</v>
@@ -4356,14 +4359,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,11 +4376,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4389,14 +4392,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,11 +4409,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4422,14 +4425,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,11 +4442,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4455,7 +4458,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4476,7 +4479,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4484,13 +4487,13 @@
     </row>
     <row r="98" ht="24.75" customHeight="1">
       <c r="P98" s="13">
-        <v>4594.8850000000002</v>
+        <v>4668.8850000000002</v>
       </c>
       <c r="Q98" s="13"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
       <c t="s" r="A99" s="14">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4498,13 +4501,13 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c t="s" r="G99" s="15">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="16"/>
       <c t="s" r="K99" s="17">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -101,552 +101,567 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>63.9600</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BIOREST MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>CINNARIZINE 25MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DIAMEDIZEN 60MG MR 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 30MG M.R. 30 TAB</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>254.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>9.8000</t>
+  </si>
+  <si>
+    <t>NO DEPRINE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BIOREST MASSAGE SPRAY</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>142.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>CINNARIZINE 25MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DIAMEDIZEN 60MG MR 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 30MG M.R. 30 TAB</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>61.8750</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>254.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 10 MG SACHET</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>9.8000</t>
-  </si>
-  <si>
-    <t>NO DEPRINE 50MG 30 TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>REVI 2 CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -758,10 +773,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>32:0</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -854,7 +869,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 8:45 PM</t>
+    <t>Tuesday, 3 June, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2419,7 +2434,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2429,11 +2444,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2445,7 +2460,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2462,11 +2477,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2478,7 +2493,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2495,11 +2510,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2511,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2528,11 +2543,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2544,7 +2559,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2561,11 +2576,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2577,7 +2592,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2598,7 +2613,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2610,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2782,7 +2797,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2848,7 +2863,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,11 +2873,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2874,28 +2889,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2907,20 +2922,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2931,7 +2946,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2947,7 +2962,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2964,7 +2979,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2980,7 +2995,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,14 +3038,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3060,7 +3075,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3072,14 +3087,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3089,14 +3104,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3112,7 +3127,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3145,7 +3160,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,7 +3170,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3178,7 +3193,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,11 +3236,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3237,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3277,7 +3292,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3303,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,11 +3335,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,20 +3384,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3393,7 +3408,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3409,7 +3424,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,11 +3434,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3435,31 +3450,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,11 +3533,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,11 +3566,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,11 +3632,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,31 +3681,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,28 +3714,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3797,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3798,7 +3813,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,14 +3896,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,11 +3929,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3937,7 +3952,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3980,11 +3995,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4062,7 +4077,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4079,11 +4094,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,11 +4127,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4145,11 +4160,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4178,11 +4193,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,11 +4226,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4227,7 +4242,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4244,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,11 +4292,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4293,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,11 +4325,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4343,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4409,14 +4424,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,49 +4490,115 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>282</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>283</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>26</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>249</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4668.8850000000002</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>281</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>282</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>283</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>284</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>26</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>90</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4719.8450000000003</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>286</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>287</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>288</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4981,10 +5062,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -134,12 +134,21 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t>61.8750</t>
   </si>
   <si>
+    <t>DICLAC 75 MG/3ML 5 AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -311,6 +329,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -326,9 +353,6 @@
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -440,6 +464,9 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -719,9 +746,6 @@
     <t>بلسم MINK</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -761,9 +785,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -869,7 +890,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 8:49 PM</t>
+    <t>Tuesday, 3 June, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1768,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1774,13 +1795,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1807,7 +1828,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1817,14 +1838,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1866,28 +1887,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1899,20 +1920,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1953,10 +1974,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1986,7 +2007,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1998,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2071,7 +2092,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2104,7 +2125,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2114,11 +2135,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2203,7 +2224,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2246,11 +2267,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2302,7 +2323,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2319,7 +2340,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2352,7 +2373,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2401,7 +2422,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,11 +2432,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2427,31 +2448,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2477,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2510,11 +2531,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2526,31 +2547,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2691,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,11 +2828,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2880,7 +2901,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2896,7 +2917,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,28 +2943,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,7 +3009,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,28 +3075,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3087,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3153,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3186,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3318,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,11 +3356,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3351,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,11 +3455,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3450,31 +3471,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3582,31 +3603,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,7 +3669,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3665,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3714,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3747,31 +3768,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3780,31 +3801,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,31 +3834,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,28 +3867,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3879,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4011,7 +4032,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4028,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>255</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,11 +4115,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>257</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4148,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4160,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,11 +4214,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4209,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,11 +4247,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4242,7 +4263,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4259,11 +4280,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4275,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,11 +4313,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4308,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4341,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,11 +4379,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4374,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,11 +4412,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4407,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4440,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,11 +4478,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4473,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,11 +4511,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4506,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,49 +4577,181 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>283</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>284</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>26</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>257</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>285</v>
       </c>
-      <c t="s" r="Q99" s="12">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>286</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>26</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>287</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>289</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>290</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>26</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>257</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4719.8450000000003</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>286</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>287</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>288</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>291</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>12</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>26</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>93</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>4822.8450000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>293</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>294</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>295</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5072,10 +5225,30 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
   </si>
   <si>
@@ -419,9 +428,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -843,9 +849,6 @@
   </si>
   <si>
     <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
   </si>
   <si>
     <t>مبرد قدم</t>
@@ -1828,7 +1831,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1845,7 +1848,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1861,7 +1864,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1871,14 +1874,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1887,14 +1890,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1904,14 +1907,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1920,28 +1923,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1953,20 +1956,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2007,10 +2010,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2019,14 +2022,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2040,7 +2043,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2052,14 +2055,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2125,7 +2128,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2158,7 +2161,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2168,11 +2171,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2184,14 +2187,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2201,14 +2204,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2220,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2257,7 +2260,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2316,14 +2319,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,14 +2336,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2356,7 +2359,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2389,7 +2392,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2406,7 +2409,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2422,7 +2425,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2439,7 +2442,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2455,7 +2458,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2472,7 +2475,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,14 +2484,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,14 +2501,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2534,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,24 +2550,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2587,13 +2590,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2604,7 +2607,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2637,7 +2640,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2653,7 +2656,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,14 +2666,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,14 +2682,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2703,7 +2706,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2719,7 +2722,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2732,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2762,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2798,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2814,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2831,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,14 +2847,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2861,14 +2864,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2880,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,14 +2897,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2910,14 +2913,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,14 +2930,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,14 +2963,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2983,7 +2986,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,11 +2996,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3009,14 +3012,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,11 +3029,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3042,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,11 +3062,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3075,28 +3078,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3108,31 +3111,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3141,14 +3144,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3161,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3177,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3194,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3214,7 +3217,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3240,14 +3243,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,11 +3260,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3280,7 +3283,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3294,10 +3297,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,14 +3309,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,11 +3326,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3339,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,11 +3359,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3372,14 +3375,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,11 +3392,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3405,14 +3408,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3425,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3441,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3458,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3474,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3504,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3524,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3557,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,11 +3590,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3603,31 +3606,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,31 +3639,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3672,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,11 +3689,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3702,14 +3705,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3738,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3755,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,14 +3788,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3801,14 +3804,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,11 +3821,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3834,14 +3837,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,11 +3854,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3867,14 +3870,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3887,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,28 +3903,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3950,11 +3953,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3966,14 +3969,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,7 +3986,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4006,7 +4009,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4019,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4032,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4052,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4118,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4138,7 +4141,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4152,7 +4155,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4181,14 +4184,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,7 +4200,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4214,14 +4217,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>264</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4247,11 +4250,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4263,14 +4266,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,11 +4283,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4296,14 +4299,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,11 +4316,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4329,14 +4332,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,11 +4349,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4369,7 +4372,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,11 +4382,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4395,7 +4398,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4412,11 +4415,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4428,14 +4431,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4445,11 +4448,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4461,14 +4464,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,11 +4481,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4501,7 +4504,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,11 +4514,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,11 +4547,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4567,7 +4570,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,14 +4596,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,14 +4613,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,14 +4629,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4646,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4659,14 +4662,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,14 +4679,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,14 +4695,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,49 +4712,82 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>4822.8450000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>292</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>12</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>26</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>96</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>293</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c t="s" r="Q104" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4849.8450000000003</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
         <v>294</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
         <v>295</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>296</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5245,10 +5281,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -530,6 +530,12 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -578,9 +584,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -773,7 +776,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>حنه جلوري سوده 1 كيس</t>
@@ -893,7 +896,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:01 PM</t>
+    <t>Tuesday, 3 June, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3194,11 +3197,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3210,14 +3213,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3227,14 +3230,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3250,7 +3253,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3316,7 +3319,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3330,10 +3333,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3359,11 +3362,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3392,11 +3395,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,11 +3428,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,14 +3494,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,11 +3527,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3547,7 +3550,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3573,14 +3576,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3590,14 +3593,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,11 +3626,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3646,24 +3649,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3672,31 +3675,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,11 +3725,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3738,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3755,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3771,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3788,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,11 +3857,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,11 +3890,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3923,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,28 +3939,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,11 +3989,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,11 +4022,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,11 +4055,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4200,7 +4203,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4217,14 +4220,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,7 +4236,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4250,14 +4253,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,7 +4269,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4283,11 +4286,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4306,7 +4309,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4316,11 +4319,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4339,7 +4342,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,11 +4352,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4372,7 +4375,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4471,7 +4474,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4504,7 +4507,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4514,11 +4517,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4530,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4547,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4563,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,11 +4583,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4603,7 +4606,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,14 +4616,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4629,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,14 +4649,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>70</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4662,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,11 +4682,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,14 +4715,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,14 +4731,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4745,49 +4748,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4849.8450000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>293</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>26</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>96</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>294</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c t="s" r="Q105" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4876.8450000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>295</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
         <v>296</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>297</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5286,10 +5322,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BONE CARE 0.25MCG 30 CAP</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
   </si>
   <si>
@@ -371,12 +380,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -470,6 +473,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -515,9 +527,6 @@
     <t>3:5</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>9.8000</t>
   </si>
   <si>
@@ -755,9 +764,6 @@
     <t>بلسم MINK</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -896,7 +902,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:05 PM</t>
+    <t>Tuesday, 3 June, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1873,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1884,7 +1890,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1900,7 +1906,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1910,14 +1916,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1943,14 +1949,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1959,28 +1965,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1992,20 +1998,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2046,10 +2052,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2058,14 +2064,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2079,7 +2085,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2164,7 +2170,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2197,7 +2203,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2207,11 +2213,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2240,14 +2246,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2296,7 +2302,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,11 +2345,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2372,14 +2378,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2395,7 +2401,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2428,7 +2434,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2445,7 +2451,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2461,7 +2467,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2478,7 +2484,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2494,7 +2500,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2511,7 +2517,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2537,14 +2543,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2570,14 +2576,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2586,24 +2592,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2626,24 +2632,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2652,7 +2658,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2735,14 +2741,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2784,14 +2790,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2900,14 +2906,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2933,14 +2939,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2989,7 +2995,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2999,11 +3005,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3015,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3098,11 +3104,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3114,28 +3120,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3180,28 +3186,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3267,10 +3273,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3296,11 +3302,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3345,14 +3351,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3362,14 +3368,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3378,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3395,14 +3401,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3428,11 +3434,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,11 +3533,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3560,14 +3566,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3626,11 +3632,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3675,31 +3681,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,11 +3731,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3741,31 +3747,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,11 +3830,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3890,14 +3896,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3906,14 +3912,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,11 +3929,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3972,31 +3978,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4005,28 +4011,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4088,11 +4094,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4104,7 +4110,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4269,7 +4275,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4286,11 +4292,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4302,7 +4308,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4319,14 +4325,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4352,11 +4358,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4385,11 +4391,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4408,7 +4414,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,11 +4424,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4451,11 +4457,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4467,14 +4473,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,11 +4490,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4507,7 +4513,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4517,11 +4523,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4550,11 +4556,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4566,14 +4572,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,11 +4622,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4632,14 +4638,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,11 +4688,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,49 +4787,115 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>293</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
         <v>294</v>
       </c>
-      <c t="s" r="Q105" s="12">
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>26</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>262</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4876.8450000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>295</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>12</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>26</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>99</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>296</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c t="s" r="Q107" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>4970.6049999999996</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>297</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>298</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>299</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5327,10 +5399,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -233,12 +233,36 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -899,10 +923,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 3 June, 2025 9:07 PM</t>
+    <t>Tuesday, 3 June, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2170,21 +2191,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2213,11 +2234,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2246,11 +2267,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2378,7 +2399,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2401,7 +2422,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2418,7 +2439,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2434,7 +2455,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2451,7 +2472,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2467,7 +2488,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,11 +2498,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2493,7 +2514,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2510,11 +2531,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2526,7 +2547,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2599,7 +2620,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2609,11 +2630,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2625,31 +2646,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2691,7 +2712,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2708,11 +2729,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2724,31 +2745,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2807,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2863,7 +2884,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2880,7 +2901,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2896,7 +2917,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2988,7 +3009,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3038,11 +3059,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3061,7 +3082,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,14 +3092,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3087,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,11 +3125,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3120,7 +3141,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3137,14 +3158,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3160,7 +3181,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3186,28 +3207,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3252,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,7 +3290,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3292,17 +3313,17 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3335,11 +3356,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3351,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,11 +3422,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3434,11 +3455,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3450,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,14 +3488,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3556,7 +3577,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,14 +3587,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3582,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3599,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3615,7 +3636,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3632,11 +3653,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3655,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3688,7 +3709,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3714,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3747,28 +3768,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3780,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3813,7 +3834,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3830,11 +3851,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3846,28 +3867,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3879,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,11 +3917,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,31 +4065,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,31 +4098,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,28 +4131,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4200,7 +4221,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4216,7 +4237,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4242,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,11 +4280,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4296,10 +4317,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4358,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4374,7 +4395,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4391,11 +4412,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4407,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,7 +4461,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4457,11 +4478,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4473,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,11 +4511,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4506,7 +4527,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4523,11 +4544,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4539,14 +4560,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,11 +4577,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4572,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,11 +4610,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4605,7 +4626,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4622,11 +4643,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4638,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,11 +4676,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4671,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4704,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4737,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,11 +4775,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4770,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4787,11 +4808,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4803,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,14 +4841,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4843,7 +4864,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4853,49 +4874,148 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>298</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>26</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>299</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>302</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>26</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>270</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>4970.6049999999996</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>297</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>298</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>299</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>303</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>26</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>107</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5095.5050000000001</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>304</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>305</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>306</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5409,10 +5529,25 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -380,6 +389,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -509,6 +524,9 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -614,9 +632,6 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -668,6 +683,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -809,6 +833,12 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>حزام تخسيس</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -821,9 +851,6 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -833,10 +860,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>33:0</t>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>39:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -917,13 +944,10 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>39:0</t>
-  </si>
-  <si>
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:20 PM</t>
+    <t>Tuesday, 3 June, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1993,7 +2017,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2019,28 +2043,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2052,20 +2076,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2106,10 +2130,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2139,7 +2163,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2191,21 +2215,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2217,24 +2241,24 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2257,7 +2281,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2323,7 +2347,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2356,7 +2380,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,11 +2390,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,14 +2423,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2455,7 +2479,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,11 +2522,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,7 +2578,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2587,7 +2611,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2604,7 +2628,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2620,7 +2644,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2637,7 +2661,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2670,7 +2694,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2719,7 +2743,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2745,31 +2769,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2778,7 +2802,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,28 +2835,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2844,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,11 +2885,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2877,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,11 +2918,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2910,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,7 +2951,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2950,7 +2974,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,7 +2984,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,11 +3050,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3042,7 +3066,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,11 +3215,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3247,7 +3271,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,11 +3314,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3306,28 +3330,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3339,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,11 +3413,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3405,28 +3429,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3438,7 +3462,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3455,11 +3479,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,11 +3512,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,11 +3545,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3537,7 +3561,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3554,11 +3578,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,7 +3660,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3653,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3669,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3743,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3735,7 +3759,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3752,11 +3776,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,11 +3809,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,11 +3842,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,11 +3875,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3867,28 +3891,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,31 +4023,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,7 +4089,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,11 +4139,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4131,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4164,31 +4188,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,31 +4221,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,31 +4254,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,28 +4287,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,11 +4370,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,11 +4403,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,11 +4436,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4428,7 +4452,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4445,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>275</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,7 +4485,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4478,11 +4502,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4494,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4534,7 +4558,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,11 +4568,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4577,11 +4601,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4593,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,11 +4667,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4659,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,11 +4700,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4692,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4733,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4725,14 +4749,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,11 +4766,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4758,14 +4782,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,11 +4799,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4791,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,11 +4832,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4824,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,14 +4865,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4857,14 +4881,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,11 +4898,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4890,14 +4914,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,11 +4931,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4923,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,14 +4964,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4956,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,49 +4997,214 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>301</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>302</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>26</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>76</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>304</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>305</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>26</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>225</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>306</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>307</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>26</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>308</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>284</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>26</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>225</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5095.5050000000001</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>304</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>305</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>306</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>311</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>12</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>26</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>110</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5433.0050000000001</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>312</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>313</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>314</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5544,10 +5733,35 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -218,30 +218,33 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>12.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>CINNARIZINE 25MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>CINNARIZINE 25MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -584,9 +587,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -947,7 +947,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:30 PM</t>
+    <t>Tuesday, 3 June, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2100,7 +2100,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2175,14 +2175,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2192,11 +2192,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2274,14 +2274,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,11 +2291,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2324,11 +2324,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2406,14 +2406,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,11 +2423,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2439,14 +2439,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2489,11 +2489,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2571,14 +2571,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,11 +2588,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2621,11 +2621,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2670,14 +2670,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2703,14 +2703,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2753,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2934,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,11 +2951,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3033,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3165,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>58</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3248,11 +3248,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,11 +3347,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3396,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3429,14 +3429,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,11 +3446,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3479,11 +3479,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3700,7 +3700,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3931,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3948,7 +3948,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3964,7 +3964,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4030,7 +4030,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4129,7 +4129,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4525,7 +4525,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4558,7 +4558,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4832,11 +4832,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4865,11 +4865,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5162,11 +5162,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="116" ht="25.5" customHeight="1">
       <c r="P116" s="13">
-        <v>5433.0050000000001</v>
+        <v>5445.0050000000001</v>
       </c>
       <c r="Q116" s="13"/>
     </row>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -422,6 +422,9 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
+    <t>95.7600</t>
+  </si>
+  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -584,6 +587,12 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
@@ -602,6 +611,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -830,9 +848,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>حزام تخسيس</t>
   </si>
   <si>
@@ -842,12 +857,6 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
@@ -911,6 +920,12 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -926,9 +941,6 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>مكنه حلاقه VIP</t>
   </si>
   <si>
@@ -947,7 +959,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:31 PM</t>
+    <t>Tuesday, 3 June, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2842,7 +2854,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2856,10 +2868,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2868,7 +2880,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2901,7 +2913,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2967,7 +2979,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3000,7 +3012,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3021,7 +3033,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3054,7 +3066,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3066,7 +3078,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3083,11 +3095,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3099,7 +3111,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3116,11 +3128,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3132,7 +3144,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3149,11 +3161,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,11 +3194,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>58</v>
@@ -3198,7 +3210,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3215,11 +3227,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3231,7 +3243,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3264,7 +3276,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3297,7 +3309,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3318,7 +3330,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3330,7 +3342,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3347,11 +3359,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3363,7 +3375,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3380,11 +3392,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3413,11 +3425,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3462,7 +3474,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3479,11 +3491,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3528,7 +3540,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3545,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3568,7 +3580,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,14 +3623,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3667,7 +3679,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,11 +3755,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,11 +3788,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3799,7 +3811,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3816,7 +3828,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3832,7 +3844,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3842,11 +3854,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3858,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3887,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3964,7 +3976,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3981,7 +3993,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3997,7 +4009,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,31 +4035,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4096,13 +4108,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4113,7 +4125,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4129,7 +4141,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4146,7 +4158,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4162,7 +4174,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4195,7 +4207,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4294,7 +4306,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,31 +4332,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4366,7 +4378,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4393,7 +4405,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,11 +4415,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,11 +4448,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4452,7 +4464,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,11 +4514,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4558,7 +4570,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,11 +4580,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,11 +4613,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4624,7 +4636,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>284</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,7 +4662,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4667,11 +4679,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4683,7 +4695,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4700,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4723,7 +4735,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,11 +4745,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4749,7 +4761,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4766,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4822,7 +4834,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,11 +4844,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4855,7 +4867,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,11 +4877,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4914,7 +4926,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4931,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4954,7 +4966,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,11 +5009,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5013,14 +5025,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,11 +5075,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5079,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,14 +5141,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>170</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5162,49 +5174,148 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>310</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>311</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>26</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>312</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>314</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>287</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>26</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>231</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>315</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>26</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>111</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>86</v>
       </c>
-      <c t="s" r="Q115" s="12">
+      <c t="s" r="Q118" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5445.0050000000001</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>312</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>313</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>314</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5605.0050000000001</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>316</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>317</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>318</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5758,10 +5869,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>95.7600</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -473,9 +482,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -770,9 +776,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -896,6 +899,15 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
@@ -959,7 +971,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:34 PM</t>
+    <t>Tuesday, 3 June, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2887,7 +2899,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2937,7 +2949,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2953,7 +2965,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3003,7 +3015,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3019,7 +3031,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3085,7 +3097,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,11 +3305,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3349,7 +3361,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,11 +3371,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,11 +3404,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3441,28 +3453,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3474,31 +3486,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3547,7 +3559,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,7 +3585,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3745,7 +3757,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3759,10 +3771,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,11 +4097,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4101,31 +4113,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,31 +4146,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,11 +4196,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4200,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4365,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,28 +4410,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,11 +4460,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4464,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,11 +4493,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4504,7 +4516,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,11 +4526,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,7 +4575,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4580,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,11 +4625,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4636,7 +4648,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,11 +4658,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4669,7 +4681,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,11 +4691,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4695,7 +4707,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,7 +4740,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,7 +4773,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4778,11 +4790,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4801,7 +4813,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4823,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4834,7 +4846,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4856,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4867,7 +4879,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,11 +4889,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,11 +4922,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4933,7 +4945,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4959,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4988,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,7 +5004,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5009,11 +5021,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5054,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5091,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,11 +5120,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5124,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5164,7 +5176,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,11 +5186,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5207,14 +5219,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5223,14 +5235,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5240,14 +5252,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5256,14 +5268,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5273,49 +5285,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>288</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>26</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>233</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>319</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>26</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>111</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>86</v>
       </c>
-      <c t="s" r="Q118" s="12">
+      <c t="s" r="Q120" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5605.0050000000001</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>316</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>317</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>318</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5668.6450000000004</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>320</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>321</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>322</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5884,10 +5962,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -971,7 +971,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:36 PM</t>
+    <t>Tuesday, 3 June, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -593,6 +593,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>NORFLEX 30MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>6.2700</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -872,106 +881,109 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>78.0000</t>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>فاتيكا بلسم 180مل</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا بالارجان 70 مل</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>مكنه حلاقه VIP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>39:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>فاتيكا بلسم 180مل</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>كريم ONE للبشره الحساسه</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 65 مل</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا بالارجان 70 مل</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>كريم كير اند مور75مل</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم للبشره العاديه </t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>مكنه حلاقه VIP</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب صغيره</t>
-  </si>
-  <si>
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:43 PM</t>
+    <t>Tuesday, 3 June, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3559,7 +3571,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3573,10 +3585,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,14 +3614,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,7 +3630,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3658,7 +3670,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,7 +3696,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3701,7 +3713,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3724,7 +3736,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,14 +3746,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3750,14 +3762,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3771,7 +3783,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,14 +3812,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,7 +3835,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,11 +3845,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3849,14 +3861,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,11 +3878,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3889,7 +3901,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3922,7 +3934,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3939,7 +3951,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3955,7 +3967,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,14 +3977,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,14 +3993,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,11 +4010,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4014,14 +4026,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4043,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4054,7 +4066,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4071,7 +4083,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4087,7 +4099,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4104,7 +4116,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4120,7 +4132,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,11 +4142,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4146,31 +4158,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4186,13 +4198,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4203,7 +4215,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4219,7 +4231,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4252,7 +4264,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4269,7 +4281,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4285,7 +4297,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4302,7 +4314,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4318,7 +4330,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4335,7 +4347,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4351,7 +4363,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4384,7 +4396,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4417,7 +4429,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,28 +4455,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4476,14 +4488,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4505,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4509,14 +4521,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,11 +4538,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4542,14 +4554,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,11 +4571,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4575,14 +4587,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4596,10 +4608,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,7 +4620,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4625,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,14 +4653,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,11 +4670,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4674,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,11 +4703,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4707,14 +4719,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,11 +4736,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4740,7 +4752,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4757,14 +4769,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4790,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,7 +4818,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4823,11 +4835,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4839,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,11 +4868,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4872,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,11 +4901,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4905,14 +4917,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,11 +4934,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4938,14 +4950,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +4967,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4978,7 +4990,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,11 +5000,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5004,7 +5016,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5037,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,11 +5066,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5070,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,11 +5099,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5103,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5153,11 +5165,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5169,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,11 +5198,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,14 +5231,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5242,7 +5254,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5252,14 +5264,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,11 +5297,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5301,14 +5313,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5318,14 +5330,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5334,14 +5346,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5351,49 +5363,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5668.6450000000004</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>320</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>321</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>322</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>323</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>12</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>26</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>111</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>5676.915</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>324</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>325</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>326</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5972,10 +6017,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -68,24 +68,27 @@
     <t>58.00</t>
   </si>
   <si>
-    <t>29.0000</t>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -248,9 +251,6 @@
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>12.8700</t>
+    <t>51.8700</t>
   </si>
   <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
@@ -809,6 +809,9 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -881,10 +884,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>40:0</t>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>43:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -983,7 +986,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:48 PM</t>
+    <t>Tuesday, 3 June, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1660,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1707,7 +1710,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1716,7 +1719,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1729,18 +1732,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1749,14 +1752,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1766,14 +1769,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1782,7 +1785,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1799,14 +1802,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1815,14 +1818,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1832,14 +1835,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1848,14 +1851,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1865,11 +1868,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1881,28 +1884,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1914,7 +1917,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1931,14 +1934,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1947,14 +1950,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1964,14 +1967,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1980,7 +1983,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1997,11 +2000,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2013,14 +2016,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2030,11 +2033,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2046,7 +2049,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2063,11 +2066,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2079,14 +2082,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2096,11 +2099,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2112,28 +2115,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2162,11 +2165,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2178,7 +2181,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2195,14 +2198,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2211,14 +2214,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2235,7 +2238,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2268,7 +2271,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2290,18 +2293,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2317,7 +2320,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2334,7 +2337,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2367,7 +2370,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2400,7 +2403,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2416,7 +2419,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2433,7 +2436,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2466,7 +2469,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2614,7 +2617,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2631,7 +2634,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2647,7 +2650,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2664,7 +2667,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2680,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2713,7 +2716,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2730,7 +2733,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,10 +2763,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2779,7 +2782,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2855,14 +2858,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2878,24 +2881,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2994,7 +2997,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3043,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3060,7 +3063,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3119,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3175,7 +3178,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3192,7 +3195,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,7 +3261,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3274,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3291,7 +3294,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3350,11 +3353,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3373,7 +3376,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3423,7 +3426,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3456,7 +3459,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3489,7 +3492,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3511,7 +3514,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3522,7 +3525,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3571,7 +3574,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3588,7 +3591,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3647,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,7 +3690,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3713,7 +3716,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3786,7 +3789,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3819,7 +3822,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3878,11 +3881,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3901,7 +3904,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3967,7 +3970,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3984,7 +3987,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4066,7 +4069,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4083,7 +4086,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4132,7 +4135,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4204,7 +4207,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4215,7 +4218,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4297,7 +4300,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4314,7 +4317,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4330,7 +4333,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4380,7 +4383,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4413,7 +4416,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4429,7 +4432,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4446,7 +4449,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4462,7 +4465,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4488,28 +4491,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4521,28 +4524,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4554,28 +4557,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4594,21 +4597,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4620,31 +4623,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4653,7 +4656,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4666,18 +4669,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,28 +4689,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4726,21 +4729,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4759,21 +4762,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4785,7 +4788,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4798,18 +4801,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4818,7 +4821,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4831,18 +4834,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4851,7 +4854,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4864,15 +4867,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4891,21 +4894,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4924,21 +4927,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4957,21 +4960,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4983,28 +4986,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5016,28 +5019,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5062,7 +5065,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5089,21 +5092,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5122,21 +5125,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5148,28 +5151,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5181,28 +5184,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5214,28 +5217,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5254,24 +5257,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5280,31 +5283,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5320,21 +5323,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5346,31 +5349,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5379,66 +5382,99 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>5676.915</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>324</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>12</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>27</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>111</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>5849.915</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
         <v>325</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
         <v>326</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>327</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6022,10 +6058,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -539,6 +539,12 @@
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -824,6 +830,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -986,7 +1001,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 9:51 PM</t>
+    <t>Tuesday, 3 June, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3376,7 +3391,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3409,7 +3424,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3452,11 +3467,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3485,11 +3500,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3501,28 +3516,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3534,31 +3549,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3640,7 +3655,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,7 +3681,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3683,11 +3698,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3815,11 +3830,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3838,7 +3853,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3852,10 +3867,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,11 +3929,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,11 +3962,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3963,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4160,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,11 +4193,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4194,31 +4209,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,31 +4242,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,11 +4292,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4293,14 +4308,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,14 +4391,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4392,14 +4407,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,11 +4424,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,11 +4457,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,11 +4490,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,14 +4523,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4524,28 +4539,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4564,21 +4579,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4590,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,11 +4622,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4673,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,11 +4721,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4754,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,14 +4770,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,11 +4787,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4788,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,11 +4820,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4871,11 +4886,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4904,14 +4919,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4935,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,11 +4952,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4953,7 +4968,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4986,14 +5001,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5018,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5019,14 +5034,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,11 +5051,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5059,7 +5074,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5084,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5085,14 +5100,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5117,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5118,14 +5133,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5150,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5151,7 +5166,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5168,11 +5183,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5184,14 +5199,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5216,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5224,7 +5239,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,11 +5249,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5257,7 +5272,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,11 +5282,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5283,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,14 +5315,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5316,14 +5331,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,11 +5348,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5349,14 +5364,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,14 +5381,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5389,7 +5404,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,14 +5414,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5415,14 +5430,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,49 +5447,115 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>327</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>328</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>27</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>238</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>329</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>12</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>27</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>111</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>86</v>
       </c>
-      <c t="s" r="Q122" s="12">
+      <c t="s" r="Q124" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>5849.915</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>325</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>326</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>327</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6184.915</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>330</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>331</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>332</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6063,10 +6144,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -812,7 +821,7 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t>VONSECA 20MG 14 TAB</t>
@@ -899,10 +908,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>43:0</t>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>44:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1001,7 +1010,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:01 PM</t>
+    <t>Tuesday, 3 June, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2962,7 +2971,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3012,7 +3021,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3078,7 +3087,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3094,7 +3103,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3193,7 +3202,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3210,7 +3219,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3226,7 +3235,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3243,7 +3252,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3259,7 +3268,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3309,7 +3318,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3325,7 +3334,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,11 +3377,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3490,7 +3499,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3523,7 +3532,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3549,24 +3558,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3589,24 +3598,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3622,7 +3631,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3639,7 +3648,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3655,7 +3664,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3669,10 +3678,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,7 +3723,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3754,7 +3763,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,7 +3789,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3797,7 +3806,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3820,7 +3829,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3867,7 +3876,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3919,7 +3928,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,11 +3938,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3945,7 +3954,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3985,7 +3994,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4018,7 +4027,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4035,7 +4044,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4051,7 +4060,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4150,7 +4159,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4167,7 +4176,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4183,7 +4192,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4200,7 +4209,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4216,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,11 +4235,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4242,31 +4251,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4282,13 +4291,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4299,7 +4308,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4315,7 +4324,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4348,7 +4357,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4365,7 +4374,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4381,7 +4390,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4398,7 +4407,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4414,7 +4423,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4431,7 +4440,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4447,7 +4456,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4480,7 +4489,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>172</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4612,21 +4621,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4671,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,11 +4697,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4758,10 +4767,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4770,7 +4779,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,11 +4829,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,11 +4862,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4869,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,11 +4895,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4902,7 +4911,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>297</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,7 +4977,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4985,11 +4994,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5018,11 +5027,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5034,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5051,11 +5060,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5100,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5140,7 +5149,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5166,7 +5175,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5199,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5315,11 +5324,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,11 +5357,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5404,7 +5413,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,14 +5423,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5430,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5447,11 +5456,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5463,14 +5472,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5480,14 +5489,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5496,14 +5505,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5513,49 +5522,82 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6184.915</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>330</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>331</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>332</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>12</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>27</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>111</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6239.2349999999997</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>333</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>334</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>335</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6154,10 +6196,15 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -341,6 +341,9 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DIAMEDIZEN 60MG MR 30 F.C.TAB</t>
   </si>
   <si>
@@ -689,6 +692,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -767,9 +782,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
   </si>
   <si>
@@ -821,7 +833,7 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>32.6400</t>
+    <t>48.9600</t>
   </si>
   <si>
     <t>VONSECA 20MG 14 TAB</t>
@@ -881,6 +893,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -917,12 +932,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
     <t>فاتيكا بلسم 180مل</t>
   </si>
   <si>
@@ -1010,7 +1028,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:03 PM</t>
+    <t>Tuesday, 3 June, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2575,7 +2593,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2601,7 +2619,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2618,11 +2636,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2685,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,11 +2702,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2783,11 +2801,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2872,7 +2890,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2898,31 +2916,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,31 +2949,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3030,7 +3048,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3063,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3179,14 +3197,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3212,14 +3230,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3311,14 +3329,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3400,7 +3418,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,11 +3428,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3433,7 +3451,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3542,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3575,11 +3593,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3591,28 +3609,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3624,31 +3642,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3773,11 +3791,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3806,14 +3824,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3822,7 +3840,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3839,11 +3857,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3905,11 +3923,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4004,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4037,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,11 +4121,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4159,7 +4177,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4187,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,31 +4302,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,11 +4352,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4350,31 +4368,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,11 +4451,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,11 +4484,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,7 +4566,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4588,7 +4606,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4647,28 +4665,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4680,28 +4698,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4713,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4730,11 +4748,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4746,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,11 +4781,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4779,7 +4797,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4796,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,7 +4847,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4852,7 +4870,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4862,11 +4880,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4885,7 +4903,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,7 +4929,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4928,11 +4946,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4944,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4961,14 +4979,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,11 +5012,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5010,7 +5028,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5027,11 +5045,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5043,14 +5061,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5060,14 +5078,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,7 +5094,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5093,14 +5111,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5126,11 +5144,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5142,14 +5160,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,11 +5177,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5182,7 +5200,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5192,11 +5210,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5215,7 +5233,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5225,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5241,7 +5259,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5258,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5274,7 +5292,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5291,11 +5309,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5307,14 +5325,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5324,11 +5342,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5347,7 +5365,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5357,11 +5375,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5373,14 +5391,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5390,11 +5408,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5423,14 +5441,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5446,7 +5464,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5456,11 +5474,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5472,14 +5490,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5489,11 +5507,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5505,14 +5523,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5522,14 +5540,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5538,14 +5556,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5555,49 +5573,148 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>332</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>333</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>27</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>334</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>336</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>337</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>27</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>246</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>338</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>27</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>112</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>86</v>
       </c>
-      <c t="s" r="Q125" s="12">
+      <c t="s" r="Q128" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6239.2349999999997</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>333</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>334</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>335</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6433.4350000000004</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>339</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>340</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>341</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6201,10 +6318,25 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -476,6 +476,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -497,6 +506,12 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>GENUPHIL SYRUP 250ML</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -557,6 +572,9 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -821,12 +839,6 @@
     <t>VITATRON 30 CAPS</t>
   </si>
   <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -1028,7 +1040,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:08 PM</t>
+    <t>Tuesday, 3 June, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3160,7 +3172,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3187,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3263,14 +3275,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3286,7 +3298,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,14 +3473,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3477,14 +3489,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3494,11 +3506,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3583,7 +3595,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3593,14 +3605,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3642,28 +3654,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,11 +3737,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3741,31 +3753,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3814,7 +3826,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3847,7 +3859,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3880,7 +3892,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,11 +3935,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,7 +3984,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3989,11 +4001,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4005,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4022,14 +4034,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4045,7 +4057,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4059,10 +4071,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,7 +4215,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4220,11 +4232,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4368,7 +4380,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4381,18 +4393,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,11 +4430,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4451,11 +4463,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4467,28 +4479,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4529,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,11 +4595,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,11 +4661,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4698,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,31 +4743,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,28 +4776,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4797,7 +4809,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4810,15 +4822,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4830,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4863,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,11 +4892,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4896,7 +4908,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,11 +4991,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5045,11 +5057,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>60</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5068,7 +5080,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,7 +5139,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5144,11 +5156,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5160,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,7 +5205,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5210,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5233,7 +5245,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5243,11 +5255,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5266,7 +5278,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5288,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5292,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,11 +5321,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5325,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5358,7 +5370,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5375,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5391,7 +5403,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5408,11 +5420,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5431,7 +5443,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,11 +5453,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5457,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5490,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5507,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5523,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5540,14 +5552,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5556,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5573,11 +5585,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5589,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5606,11 +5618,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5622,14 +5634,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5639,14 +5651,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5655,14 +5667,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5672,49 +5684,148 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>336</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>337</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>27</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>338</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>340</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>341</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>27</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>252</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>342</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>12</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>27</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>112</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>86</v>
       </c>
-      <c t="s" r="Q128" s="12">
+      <c t="s" r="Q131" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6433.4350000000004</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>339</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>340</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>341</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6638.7849999999999</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>343</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>344</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>345</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6333,10 +6444,25 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>142.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -299,6 +308,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -392,538 +410,556 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>254.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>95.7600</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENUPHIL SYRUP 250ML</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.8700</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>9.8000</t>
+  </si>
+  <si>
+    <t>NO DEPRINE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>NORFLEX 30MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>6.2700</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>48.9600</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8703:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>بلسم MINK</t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>حزام تخسيس</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
     <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>254.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>95.7600</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENUPHIL SYRUP 250ML</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>LANTOPEP 60 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.8700</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 10 MG SACHET</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>9.8000</t>
-  </si>
-  <si>
-    <t>NO DEPRINE 50MG 30 TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>NORFLEX 30MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>6.2700</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>REVI 2 CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>48.9600</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8703:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>YASMIN 0.03/3 MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>205.00</t>
-  </si>
-  <si>
-    <t>205.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>بلسم MINK</t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>جهاز ريد</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>حزام تخسيس</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -2077,7 +2113,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2103,14 +2139,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2127,7 +2163,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2143,7 +2179,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2153,11 +2189,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2169,31 +2205,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2202,20 +2238,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2226,7 +2262,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2259,7 +2295,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2275,7 +2311,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2308,7 +2344,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2341,21 +2377,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2367,24 +2403,24 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2407,7 +2443,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2473,7 +2509,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2506,7 +2542,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2516,11 +2552,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2532,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2565,14 +2601,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,14 +2618,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2598,14 +2634,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2615,14 +2651,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2631,14 +2667,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2648,11 +2684,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2664,14 +2700,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2681,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2697,14 +2733,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,14 +2750,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2730,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2747,14 +2783,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2770,7 +2806,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2787,7 +2823,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2803,7 +2839,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2836,7 +2872,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2846,14 +2882,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2862,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2879,14 +2915,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2902,7 +2938,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2912,14 +2948,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2928,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,14 +2981,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2961,31 +2997,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2994,14 +3030,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,14 +3047,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3027,31 +3063,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3067,7 +3103,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,14 +3113,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3100,7 +3136,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,14 +3146,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3133,7 +3169,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3143,11 +3179,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3159,28 +3195,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3216,7 +3252,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3232,24 +3268,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,14 +3294,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,11 +3311,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3291,7 +3327,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3308,11 +3344,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3324,14 +3360,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,14 +3377,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3357,14 +3393,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,11 +3410,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3390,7 +3426,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3407,7 +3443,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3430,7 +3466,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,14 +3476,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3456,7 +3492,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3473,11 +3509,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3489,7 +3525,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3506,14 +3542,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3522,14 +3558,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,11 +3575,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3555,14 +3591,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,14 +3608,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3621,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3654,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,14 +3707,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3687,14 +3723,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3740,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3737,14 +3773,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3753,31 +3789,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,14 +3839,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3819,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,11 +3872,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3852,14 +3888,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,14 +3905,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,28 +3921,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3918,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,11 +4037,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4017,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,11 +4070,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -4050,14 +4086,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,11 +4103,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4083,7 +4119,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4100,11 +4136,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4116,14 +4152,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4169,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4156,7 +4192,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4202,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4203,7 +4239,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4215,7 +4251,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4232,11 +4268,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4248,14 +4284,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4281,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,11 +4334,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4314,14 +4350,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4367,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,14 +4400,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4380,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4433,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4453,7 +4489,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,11 +4499,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4486,13 +4522,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4519,7 +4555,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4533,10 +4569,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4545,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,11 +4598,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4578,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,31 +4647,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,11 +4697,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4677,14 +4713,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,11 +4796,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4783,7 +4819,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,11 +4829,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4809,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4862,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4842,31 +4878,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,31 +4911,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,31 +4944,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,28 +4977,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4974,28 +5010,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5007,14 +5043,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,14 +5060,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,14 +5076,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,11 +5093,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5073,14 +5109,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,11 +5126,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5106,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,11 +5159,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5139,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,11 +5192,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5172,7 +5208,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5189,14 +5225,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>309</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,7 +5241,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5222,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,11 +5291,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5271,14 +5307,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,11 +5324,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5304,7 +5340,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5321,11 +5357,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5337,14 +5373,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,14 +5439,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5456,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5436,7 +5472,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5453,11 +5489,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5469,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5522,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5502,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5535,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,11 +5588,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5568,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,11 +5621,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5601,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,11 +5654,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5634,14 +5670,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,14 +5687,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5667,14 +5703,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5684,11 +5720,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5700,14 +5736,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5717,11 +5753,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>339</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5733,14 +5769,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5750,14 +5786,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5766,14 +5802,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5783,49 +5819,214 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>344</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>345</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>27</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>80</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>347</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>342</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>27</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>262</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>348</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>349</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>27</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>350</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>351</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>352</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>353</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>27</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>262</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6638.7849999999999</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>343</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>344</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>345</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>354</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>12</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>27</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>118</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>6937.1850000000004</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>355</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>356</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>357</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6459,10 +6660,35 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -1076,7 +1076,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:15 PM</t>
+    <t>Tuesday, 3 June, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -458,429 +458,435 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENUPHIL SYRUP 250ML</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.8700</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>9.8000</t>
+  </si>
+  <si>
+    <t>NO DEPRINE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>NORFLEX 30MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>6.2700</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 10MG 60 TAB</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>48.9600</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENUPHIL SYRUP 250ML</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>LANTOPEP 60 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.8700</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 10 MG SACHET</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>9.8000</t>
-  </si>
-  <si>
-    <t>NO DEPRINE 50MG 30 TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>NORFLEX 30MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>6.2700</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>REVI 2 CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>THIOTACID 300MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>48.9600</t>
-  </si>
-  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -1046,10 +1052,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -1076,7 +1079,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:16 PM</t>
+    <t>Tuesday, 3 June, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3136,7 +3139,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3150,10 +3153,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3162,7 +3165,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3179,11 +3182,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3195,7 +3198,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3212,11 +3215,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3261,7 +3264,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3377,11 +3380,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3393,7 +3396,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3414,7 +3417,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3447,7 +3450,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3459,7 +3462,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3492,7 +3495,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3509,11 +3512,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3525,7 +3528,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>62</v>
@@ -3624,7 +3627,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3641,7 +3644,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3657,7 +3660,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3744,7 +3747,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3789,7 +3792,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3810,7 +3813,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3822,7 +3825,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3839,11 +3842,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3855,7 +3858,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3872,11 +3875,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3905,11 +3908,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3921,14 +3924,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3938,11 +3941,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3954,7 +3957,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3971,11 +3974,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3987,7 +3990,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4004,11 +4007,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -4020,7 +4023,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4037,7 +4040,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4053,7 +4056,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4086,7 +4089,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4103,11 +4106,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4119,7 +4122,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4140,7 +4143,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4152,7 +4155,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4169,11 +4172,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4218,7 +4221,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4235,11 +4238,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4251,7 +4254,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4284,7 +4287,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4305,7 +4308,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4317,7 +4320,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4334,11 +4337,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4350,14 +4353,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4367,11 +4370,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4400,11 +4403,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4416,7 +4419,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4433,11 +4436,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4449,14 +4452,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,11 +4469,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4482,7 +4485,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4499,11 +4502,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4515,7 +4518,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4532,11 +4535,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4548,7 +4551,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4565,11 +4568,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>135</v>
@@ -4581,7 +4584,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4598,11 +4601,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4614,7 +4617,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4647,7 +4650,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4664,11 +4667,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4680,7 +4683,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4697,11 +4700,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4713,7 +4716,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4730,11 +4733,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4746,7 +4749,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4779,7 +4782,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4800,7 +4803,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4812,31 +4815,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4845,14 +4848,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,14 +4865,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4878,14 +4881,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,11 +4898,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4918,7 +4921,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4928,14 +4931,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>161</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4944,14 +4947,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,14 +4964,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4977,14 +4980,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4994,14 +4997,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5010,14 +5013,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5027,11 +5030,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5043,28 +5046,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5093,11 +5096,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5109,14 +5112,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,11 +5129,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>132</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5142,14 +5145,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,11 +5162,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5175,14 +5178,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5192,11 +5195,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>193</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5208,14 +5211,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,14 +5228,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5258,14 +5261,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5281,7 +5284,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,11 +5294,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5307,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,11 +5327,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5347,7 +5350,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5357,11 +5360,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5390,14 +5393,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>321</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5406,7 +5409,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5423,14 +5426,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q119" s="12">
         <v>323</v>
-      </c>
-      <c t="s" r="Q119" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5456,14 +5459,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5479,7 +5482,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,11 +5492,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5505,14 +5508,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,11 +5525,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5538,14 +5541,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,11 +5558,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5578,7 +5581,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,11 +5591,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5604,14 +5607,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,11 +5624,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>119</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5637,7 +5640,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5670,14 +5673,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,11 +5690,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5703,14 +5706,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,11 +5723,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5743,7 +5746,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>339</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,11 +5756,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>340</v>
+        <v>231</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5769,14 +5772,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,11 +5789,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5809,7 +5812,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,11 +5822,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5835,14 +5838,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,14 +5855,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5868,14 +5871,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5885,14 +5888,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5908,7 +5911,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5918,11 +5921,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5934,14 +5937,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5951,14 +5954,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5967,14 +5970,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5984,49 +5987,82 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>6937.1850000000004</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>355</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>12</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>27</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>118</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>6979.0050000000001</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>356</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
         <v>357</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>358</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6685,10 +6721,15 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -1079,7 +1079,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:18 PM</t>
+    <t>Tuesday, 3 June, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -1079,7 +1079,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:19 PM</t>
+    <t>Tuesday, 3 June, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -1079,7 +1079,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:22 PM</t>
+    <t>Tuesday, 3 June, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -1079,7 +1079,7 @@
     <t>مينك كريم 125 مل</t>
   </si>
   <si>
-    <t>Tuesday, 3 June, 2025 10:24 PM</t>
+    <t>Tuesday, 3 June, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-03_00-00.xlsx
+++ b/DaySale_2025-06-03_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">COFDIETIN  CAPS</t>
   </si>
   <si>
@@ -713,9 +722,6 @@
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>OSTEOCARE LIQUID 120 ML</t>
   </si>
   <si>
@@ -824,9 +830,6 @@
     <t>THIOTACID 300MG 30 TAB.</t>
   </si>
   <si>
-    <t>49.5000</t>
-  </si>
-  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -966,6 +969,15 @@
   </si>
   <si>
     <t>35.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -2413,21 +2425,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2439,24 +2451,24 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2479,7 +2491,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2545,7 +2557,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2578,7 +2590,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2611,7 +2623,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2621,11 +2633,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2710,7 +2722,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2819,14 +2831,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2842,7 +2854,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2875,7 +2887,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2892,7 +2904,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2908,7 +2920,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2941,7 +2953,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3066,31 +3078,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3099,31 +3111,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3139,7 +3151,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3222,7 +3234,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3238,7 +3250,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3264,20 +3276,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3288,7 +3300,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3310,7 +3322,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3337,7 +3349,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3403,7 +3415,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3413,11 +3425,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3462,7 +3474,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3502,7 +3514,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3519,7 +3531,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3535,7 +3547,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3568,7 +3580,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3585,7 +3597,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3601,7 +3613,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3611,14 +3623,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3648,10 +3660,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3710,11 +3722,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3743,11 +3755,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3759,7 +3771,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3776,11 +3788,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3842,14 +3854,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3865,7 +3877,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3875,11 +3887,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3908,11 +3920,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3924,24 +3936,24 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3964,24 +3976,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3997,7 +4009,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4014,7 +4026,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4030,7 +4042,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4044,10 +4056,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4089,7 +4101,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4106,11 +4118,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4129,7 +4141,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4155,7 +4167,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4172,7 +4184,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4195,7 +4207,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4242,7 +4254,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4320,7 +4332,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4502,11 +4514,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,14 +4547,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4601,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4634,11 +4646,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4650,31 +4662,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4683,24 +4695,24 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4723,7 +4735,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4733,14 +4745,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4766,11 +4778,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4799,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4815,7 +4827,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4828,15 +4840,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4848,31 +4860,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4898,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4914,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4931,11 +4943,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        